--- a/StructureDefinition-lk-core-allergy-intolerance.xlsx
+++ b/StructureDefinition-lk-core-allergy-intolerance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="281">
   <si>
     <t>Property</t>
   </si>
@@ -138,6 +138,10 @@
   </si>
   <si>
     <t>Substances include, but are not limited to: a therapeutic substance administered correctly at an appropriate dosage for the individual; food; material derived from plants or animals; or venom from insect stings.</t>
+  </si>
+  <si>
+    <t>ait-1:AllergyIntolerance.clinicalStatus SHALL be present if verificationStatus is not entered-in-error. {verificationStatus.coding.where(system = 'http://terminology.hl7.org/CodeSystem/allergyintolerance-verification' and code = 'entered-in-error').exists() or clinicalStatus.exists()}
+ait-2:AllergyIntolerance.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system = 'http://terminology.hl7.org/CodeSystem/allergyintolerance-verification' and code = 'entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
@@ -1341,10 +1345,10 @@
         <v>36</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>36</v>
@@ -1355,10 +1359,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1369,7 +1373,7 @@
         <v>34</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>36</v>
@@ -1378,19 +1382,19 @@
         <v>36</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1440,13 +1444,13 @@
         <v>36</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>36</v>
@@ -1466,10 +1470,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1480,7 +1484,7 @@
         <v>34</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>36</v>
@@ -1489,16 +1493,16 @@
         <v>36</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1549,19 +1553,19 @@
         <v>36</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>36</v>
@@ -1575,10 +1579,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1589,28 +1593,28 @@
         <v>34</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1660,19 +1664,19 @@
         <v>36</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>36</v>
@@ -1686,10 +1690,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1700,7 +1704,7 @@
         <v>34</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>36</v>
@@ -1712,16 +1716,16 @@
         <v>36</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1747,13 +1751,13 @@
         <v>36</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>36</v>
@@ -1771,19 +1775,19 @@
         <v>36</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>36</v>
@@ -1797,21 +1801,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>36</v>
@@ -1823,16 +1827,16 @@
         <v>36</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1882,22 +1886,22 @@
         <v>36</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>36</v>
@@ -1908,14 +1912,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1934,16 +1938,16 @@
         <v>36</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1993,7 +1997,7 @@
         <v>36</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>34</v>
@@ -2008,7 +2012,7 @@
         <v>36</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>36</v>
@@ -2019,14 +2023,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2045,16 +2049,16 @@
         <v>36</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2104,7 +2108,7 @@
         <v>36</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>34</v>
@@ -2116,10 +2120,10 @@
         <v>36</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>36</v>
@@ -2130,14 +2134,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2150,25 +2154,25 @@
         <v>36</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>36</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>36</v>
@@ -2217,7 +2221,7 @@
         <v>36</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>34</v>
@@ -2229,10 +2233,10 @@
         <v>36</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>36</v>
@@ -2243,10 +2247,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2266,22 +2270,22 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>36</v>
@@ -2330,7 +2334,7 @@
         <v>36</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>34</v>
@@ -2342,24 +2346,24 @@
         <v>36</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2370,28 +2374,28 @@
         <v>34</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2417,13 +2421,13 @@
         <v>36</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>36</v>
@@ -2441,25 +2445,25 @@
         <v>36</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>36</v>
@@ -2467,10 +2471,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2481,28 +2485,28 @@
         <v>34</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2528,13 +2532,13 @@
         <v>36</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>36</v>
@@ -2552,25 +2556,25 @@
         <v>36</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>36</v>
@@ -2578,21 +2582,21 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>36</v>
@@ -2601,19 +2605,19 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2639,13 +2643,13 @@
         <v>36</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>36</v>
@@ -2663,40 +2667,40 @@
         <v>36</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2712,19 +2716,19 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2750,13 +2754,13 @@
         <v>36</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>36</v>
@@ -2774,7 +2778,7 @@
         <v>36</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>34</v>
@@ -2786,35 +2790,35 @@
         <v>36</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>36</v>
@@ -2823,19 +2827,19 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2861,13 +2865,13 @@
         <v>36</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>36</v>
@@ -2885,47 +2889,47 @@
         <v>36</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>36</v>
@@ -2934,19 +2938,19 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -2972,11 +2976,11 @@
         <v>36</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>36</v>
@@ -2994,47 +2998,47 @@
         <v>36</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>36</v>
@@ -3043,16 +3047,16 @@
         <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3103,36 +3107,36 @@
         <v>36</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3143,7 +3147,7 @@
         <v>34</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>36</v>
@@ -3155,13 +3159,13 @@
         <v>36</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3212,25 +3216,25 @@
         <v>36</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>36</v>
@@ -3238,10 +3242,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3252,7 +3256,7 @@
         <v>34</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>36</v>
@@ -3264,13 +3268,13 @@
         <v>36</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3321,25 +3325,25 @@
         <v>36</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>36</v>
@@ -3347,10 +3351,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3361,7 +3365,7 @@
         <v>34</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>36</v>
@@ -3373,13 +3377,13 @@
         <v>36</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3430,47 +3434,47 @@
         <v>36</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>36</v>
@@ -3482,13 +3486,13 @@
         <v>36</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3539,25 +3543,25 @@
         <v>36</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>36</v>
@@ -3565,21 +3569,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>36</v>
@@ -3588,19 +3592,19 @@
         <v>36</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3650,36 +3654,36 @@
         <v>36</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3690,7 +3694,7 @@
         <v>34</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>36</v>
@@ -3702,16 +3706,16 @@
         <v>36</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3761,22 +3765,22 @@
         <v>36</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>36</v>
@@ -3787,10 +3791,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3813,16 +3817,16 @@
         <v>36</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3872,7 +3876,7 @@
         <v>36</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>34</v>
@@ -3884,10 +3888,10 @@
         <v>36</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>36</v>
@@ -3898,10 +3902,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3924,13 +3928,13 @@
         <v>36</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3981,7 +3985,7 @@
         <v>36</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>34</v>
@@ -3993,10 +3997,10 @@
         <v>36</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>36</v>
@@ -4007,10 +4011,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4021,7 +4025,7 @@
         <v>34</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>36</v>
@@ -4033,13 +4037,13 @@
         <v>36</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4090,13 +4094,13 @@
         <v>36</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>36</v>
@@ -4105,7 +4109,7 @@
         <v>36</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>36</v>
@@ -4116,14 +4120,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4142,16 +4146,16 @@
         <v>36</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4201,7 +4205,7 @@
         <v>36</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>34</v>
@@ -4213,10 +4217,10 @@
         <v>36</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>36</v>
@@ -4227,14 +4231,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4247,25 +4251,25 @@
         <v>36</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>36</v>
@@ -4314,7 +4318,7 @@
         <v>36</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>34</v>
@@ -4326,10 +4330,10 @@
         <v>36</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>36</v>
@@ -4340,10 +4344,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4354,7 +4358,7 @@
         <v>34</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>36</v>
@@ -4366,16 +4370,16 @@
         <v>36</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4401,13 +4405,13 @@
         <v>36</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>36</v>
@@ -4425,22 +4429,22 @@
         <v>36</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>36</v>
@@ -4451,18 +4455,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>35</v>
@@ -4477,16 +4481,16 @@
         <v>36</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4512,13 +4516,13 @@
         <v>36</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>36</v>
@@ -4536,10 +4540,10 @@
         <v>36</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>35</v>
@@ -4548,35 +4552,35 @@
         <v>36</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>36</v>
@@ -4588,16 +4592,16 @@
         <v>36</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4647,22 +4651,22 @@
         <v>36</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>36</v>
@@ -4673,10 +4677,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4687,7 +4691,7 @@
         <v>34</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>36</v>
@@ -4699,13 +4703,13 @@
         <v>36</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4756,36 +4760,36 @@
         <v>36</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4796,7 +4800,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>36</v>
@@ -4808,16 +4812,16 @@
         <v>36</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4843,13 +4847,13 @@
         <v>36</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>36</v>
@@ -4867,22 +4871,22 @@
         <v>36</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>36</v>
@@ -4893,10 +4897,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4907,7 +4911,7 @@
         <v>34</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>36</v>
@@ -4919,16 +4923,16 @@
         <v>36</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -4954,13 +4958,13 @@
         <v>36</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>36</v>
@@ -4978,22 +4982,22 @@
         <v>36</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>36</v>
@@ -5004,10 +5008,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5030,16 +5034,16 @@
         <v>36</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5089,7 +5093,7 @@
         <v>36</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>34</v>
@@ -5101,10 +5105,10 @@
         <v>36</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>36</v>
